--- a/Login/dataFiles/LoginData.xlsx
+++ b/Login/dataFiles/LoginData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="19">
   <si>
     <t>username</t>
   </si>

--- a/Login/dataFiles/LoginData.xlsx
+++ b/Login/dataFiles/LoginData.xlsx
@@ -8,15 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="21">
   <si>
     <t>username</t>
   </si>
@@ -73,6 +71,12 @@
   </si>
   <si>
     <t>Need for Attention?</t>
+  </si>
+  <si>
+    <t>San@30041994</t>
+  </si>
+  <si>
+    <t>San@300494</t>
   </si>
 </sst>
 </file>
@@ -418,15 +422,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.7109375" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="13.7109375" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="35.7109375" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
@@ -540,7 +545,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>15</v>
@@ -664,6 +669,46 @@
       </c>
       <c r="F12">
         <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -678,31 +723,12 @@
     <hyperlink ref="A9" r:id="rId8"/>
     <hyperlink ref="D2" r:id="rId9"/>
     <hyperlink ref="D3:D12" r:id="rId10" display="https://sa.aristiun.com/app/dashboard"/>
+    <hyperlink ref="A13" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="D13:D14" r:id="rId13" display="https://sa.aristiun.com/app/dashboard"/>
+    <hyperlink ref="A14" r:id="rId14"/>
+    <hyperlink ref="B14" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>